--- a/sillamania.es/software/csv/categorias_import_tres.xlsx
+++ b/sillamania.es/software/csv/categorias_import_tres.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
         <v>61</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
